--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp2-Rgmb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp2-Rgmb.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.55635</v>
+        <v>1.729584333333333</v>
       </c>
       <c r="H2">
-        <v>1.66905</v>
+        <v>5.188753</v>
       </c>
       <c r="I2">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="J2">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>9.249292000000001</v>
+        <v>12.87733</v>
       </c>
       <c r="N2">
-        <v>27.747876</v>
+        <v>38.63199</v>
       </c>
       <c r="O2">
-        <v>0.1285586120341026</v>
+        <v>0.1584922499374361</v>
       </c>
       <c r="P2">
-        <v>0.1285586120341026</v>
+        <v>0.1584922499374361</v>
       </c>
       <c r="Q2">
-        <v>5.1458436042</v>
+        <v>22.27242822316333</v>
       </c>
       <c r="R2">
-        <v>46.3125924378</v>
+        <v>200.45185400847</v>
       </c>
       <c r="S2">
-        <v>0.01543432185073674</v>
+        <v>0.039248825012411</v>
       </c>
       <c r="T2">
-        <v>0.01543432185073674</v>
+        <v>0.039248825012411</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.55635</v>
+        <v>1.729584333333333</v>
       </c>
       <c r="H3">
-        <v>1.66905</v>
+        <v>5.188753</v>
       </c>
       <c r="I3">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="J3">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>106.269536</v>
       </c>
       <c r="O3">
-        <v>0.4923571104926409</v>
+        <v>0.4359831802722915</v>
       </c>
       <c r="P3">
-        <v>0.492357110492641</v>
+        <v>0.4359831802722916</v>
       </c>
       <c r="Q3">
-        <v>19.7076854512</v>
+        <v>61.26737485873422</v>
       </c>
       <c r="R3">
-        <v>177.3691690608</v>
+        <v>551.4063737286081</v>
       </c>
       <c r="S3">
-        <v>0.05911076658813288</v>
+        <v>0.1079663362569236</v>
       </c>
       <c r="T3">
-        <v>0.05911076658813288</v>
+        <v>0.1079663362569236</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.55635</v>
+        <v>1.729584333333333</v>
       </c>
       <c r="H4">
-        <v>1.66905</v>
+        <v>5.188753</v>
       </c>
       <c r="I4">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="J4">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.569813</v>
+        <v>30.51453966666667</v>
       </c>
       <c r="N4">
-        <v>70.709439</v>
+        <v>91.54361900000001</v>
       </c>
       <c r="O4">
-        <v>0.327603717688159</v>
+        <v>0.3755683862706898</v>
       </c>
       <c r="P4">
-        <v>0.3276037176881591</v>
+        <v>0.3755683862706898</v>
       </c>
       <c r="Q4">
-        <v>13.11306546255</v>
+        <v>52.77746974634523</v>
       </c>
       <c r="R4">
-        <v>118.01758916295</v>
+        <v>474.997227717107</v>
       </c>
       <c r="S4">
-        <v>0.03933101904488244</v>
+        <v>0.09300529129184963</v>
       </c>
       <c r="T4">
-        <v>0.03933101904488245</v>
+        <v>0.09300529129184965</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.55635</v>
+        <v>1.729584333333333</v>
       </c>
       <c r="H5">
-        <v>1.66905</v>
+        <v>5.188753</v>
       </c>
       <c r="I5">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="J5">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.703826</v>
+        <v>2.433908666666667</v>
       </c>
       <c r="N5">
-        <v>11.111478</v>
+        <v>7.301726</v>
       </c>
       <c r="O5">
-        <v>0.05148055978509729</v>
+        <v>0.0299561835195825</v>
       </c>
       <c r="P5">
-        <v>0.0514805597850973</v>
+        <v>0.0299561835195825</v>
       </c>
       <c r="Q5">
-        <v>2.0606235951</v>
+        <v>4.20965029863089</v>
       </c>
       <c r="R5">
-        <v>18.5456123559</v>
+        <v>37.886852687678</v>
       </c>
       <c r="S5">
-        <v>0.006180585774903295</v>
+        <v>0.007418312286335022</v>
       </c>
       <c r="T5">
-        <v>0.006180585774903296</v>
+        <v>0.007418312286335022</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>4.835809</v>
       </c>
       <c r="I6">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="J6">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>9.249292000000001</v>
+        <v>12.87733</v>
       </c>
       <c r="N6">
-        <v>27.747876</v>
+        <v>38.63199</v>
       </c>
       <c r="O6">
-        <v>0.1285586120341026</v>
+        <v>0.1584922499374361</v>
       </c>
       <c r="P6">
-        <v>0.1285586120341026</v>
+        <v>0.1584922499374361</v>
       </c>
       <c r="Q6">
-        <v>14.90926983240933</v>
+        <v>20.75743610332334</v>
       </c>
       <c r="R6">
-        <v>134.183428491684</v>
+        <v>186.81692492991</v>
       </c>
       <c r="S6">
-        <v>0.04471851203660129</v>
+        <v>0.03657908195561481</v>
       </c>
       <c r="T6">
-        <v>0.04471851203660129</v>
+        <v>0.03657908195561481</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4.835809</v>
       </c>
       <c r="I7">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="J7">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>106.269536</v>
       </c>
       <c r="O7">
-        <v>0.4923571104926409</v>
+        <v>0.4359831802722915</v>
       </c>
       <c r="P7">
-        <v>0.492357110492641</v>
+        <v>0.4359831802722916</v>
       </c>
       <c r="Q7">
         <v>57.09990873495822</v>
@@ -883,10 +883,10 @@
         <v>513.899178614624</v>
       </c>
       <c r="S7">
-        <v>0.1712641185487506</v>
+        <v>0.1006223615902043</v>
       </c>
       <c r="T7">
-        <v>0.1712641185487507</v>
+        <v>0.1006223615902044</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4.835809</v>
       </c>
       <c r="I8">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="J8">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.569813</v>
+        <v>30.51453966666667</v>
       </c>
       <c r="N8">
-        <v>70.709439</v>
+        <v>91.54361900000001</v>
       </c>
       <c r="O8">
-        <v>0.327603717688159</v>
+        <v>0.3755683862706898</v>
       </c>
       <c r="P8">
-        <v>0.3276037176881591</v>
+        <v>0.3755683862706898</v>
       </c>
       <c r="Q8">
-        <v>37.99303794457234</v>
+        <v>49.18749518364123</v>
       </c>
       <c r="R8">
-        <v>341.937341501151</v>
+        <v>442.6874566527711</v>
       </c>
       <c r="S8">
-        <v>0.1139554212734273</v>
+        <v>0.0866789813808343</v>
       </c>
       <c r="T8">
-        <v>0.1139554212734274</v>
+        <v>0.08667898138083431</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4.835809</v>
       </c>
       <c r="I9">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="J9">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.703826</v>
+        <v>2.433908666666667</v>
       </c>
       <c r="N9">
-        <v>11.111478</v>
+        <v>7.301726</v>
       </c>
       <c r="O9">
-        <v>0.05148055978509729</v>
+        <v>0.0299561835195825</v>
       </c>
       <c r="P9">
-        <v>0.0514805597850973</v>
+        <v>0.0299561835195825</v>
       </c>
       <c r="Q9">
-        <v>5.970331701744667</v>
+        <v>3.92330581181489</v>
       </c>
       <c r="R9">
-        <v>53.732985315702</v>
+        <v>35.309752306334</v>
       </c>
       <c r="S9">
-        <v>0.01790727199038335</v>
+        <v>0.006913711506226925</v>
       </c>
       <c r="T9">
-        <v>0.01790727199038335</v>
+        <v>0.006913711506226925</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.086394</v>
+        <v>2.743651333333334</v>
       </c>
       <c r="H10">
-        <v>6.259182</v>
+        <v>8.230954000000001</v>
       </c>
       <c r="I10">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309039</v>
       </c>
       <c r="J10">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309038</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>9.249292000000001</v>
+        <v>12.87733</v>
       </c>
       <c r="N10">
-        <v>27.747876</v>
+        <v>38.63199</v>
       </c>
       <c r="O10">
-        <v>0.1285586120341026</v>
+        <v>0.1584922499374361</v>
       </c>
       <c r="P10">
-        <v>0.1285586120341026</v>
+        <v>0.1584922499374361</v>
       </c>
       <c r="Q10">
-        <v>19.297667333048</v>
+        <v>35.33090362427334</v>
       </c>
       <c r="R10">
-        <v>173.679005997432</v>
+        <v>317.9781326184601</v>
       </c>
       <c r="S10">
-        <v>0.05788096792207428</v>
+        <v>0.06226067674279435</v>
       </c>
       <c r="T10">
-        <v>0.05788096792207428</v>
+        <v>0.06226067674279434</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.086394</v>
+        <v>2.743651333333334</v>
       </c>
       <c r="H11">
-        <v>6.259182</v>
+        <v>8.230954000000001</v>
       </c>
       <c r="I11">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309039</v>
       </c>
       <c r="J11">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309038</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>106.269536</v>
       </c>
       <c r="O11">
-        <v>0.4923571104926409</v>
+        <v>0.4359831802722915</v>
       </c>
       <c r="P11">
-        <v>0.492357110492641</v>
+        <v>0.4359831802722916</v>
       </c>
       <c r="Q11">
-        <v>73.90670743106132</v>
+        <v>97.1888513797049</v>
       </c>
       <c r="R11">
-        <v>665.1603668795519</v>
+        <v>874.699662417344</v>
       </c>
       <c r="S11">
-        <v>0.2216740338723482</v>
+        <v>0.1712677298918007</v>
       </c>
       <c r="T11">
-        <v>0.2216740338723482</v>
+        <v>0.1712677298918007</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.086394</v>
+        <v>2.743651333333334</v>
       </c>
       <c r="H12">
-        <v>6.259182</v>
+        <v>8.230954000000001</v>
       </c>
       <c r="I12">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309039</v>
       </c>
       <c r="J12">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309038</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.569813</v>
+        <v>30.51453966666667</v>
       </c>
       <c r="N12">
-        <v>70.709439</v>
+        <v>91.54361900000001</v>
       </c>
       <c r="O12">
-        <v>0.327603717688159</v>
+        <v>0.3755683862706898</v>
       </c>
       <c r="P12">
-        <v>0.3276037176881591</v>
+        <v>0.3755683862706898</v>
       </c>
       <c r="Q12">
-        <v>49.175916424322</v>
+        <v>83.7212574425029</v>
       </c>
       <c r="R12">
-        <v>442.583247818898</v>
+        <v>753.4913169825261</v>
       </c>
       <c r="S12">
-        <v>0.1474970830396845</v>
+        <v>0.1475349230113314</v>
       </c>
       <c r="T12">
-        <v>0.1474970830396845</v>
+        <v>0.1475349230113314</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.086394</v>
+        <v>2.743651333333334</v>
       </c>
       <c r="H13">
-        <v>6.259182</v>
+        <v>8.230954000000001</v>
       </c>
       <c r="I13">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309039</v>
       </c>
       <c r="J13">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309038</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.703826</v>
+        <v>2.433908666666667</v>
       </c>
       <c r="N13">
-        <v>11.111478</v>
+        <v>7.301726</v>
       </c>
       <c r="O13">
-        <v>0.05148055978509729</v>
+        <v>0.0299561835195825</v>
       </c>
       <c r="P13">
-        <v>0.0514805597850973</v>
+        <v>0.0299561835195825</v>
       </c>
       <c r="Q13">
-        <v>7.727640343444</v>
+        <v>6.677796758511557</v>
       </c>
       <c r="R13">
-        <v>69.548763090996</v>
+        <v>60.10017082660401</v>
       </c>
       <c r="S13">
-        <v>0.02317810205310252</v>
+        <v>0.01176771898497739</v>
       </c>
       <c r="T13">
-        <v>0.02317810205310252</v>
+        <v>0.01176771898497739</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3793803333333334</v>
+        <v>0.8991316666666668</v>
       </c>
       <c r="H14">
-        <v>1.138141</v>
+        <v>2.697395</v>
       </c>
       <c r="I14">
-        <v>0.08186779600497247</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="J14">
-        <v>0.08186779600497246</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>9.249292000000001</v>
+        <v>12.87733</v>
       </c>
       <c r="N14">
-        <v>27.747876</v>
+        <v>38.63199</v>
       </c>
       <c r="O14">
-        <v>0.1285586120341026</v>
+        <v>0.1584922499374361</v>
       </c>
       <c r="P14">
-        <v>0.1285586120341026</v>
+        <v>0.1584922499374361</v>
       </c>
       <c r="Q14">
-        <v>3.508999482057334</v>
+        <v>11.57841518511667</v>
       </c>
       <c r="R14">
-        <v>31.580995338516</v>
+        <v>104.20573666605</v>
       </c>
       <c r="S14">
-        <v>0.01052481022469031</v>
+        <v>0.02040366622661598</v>
       </c>
       <c r="T14">
-        <v>0.01052481022469031</v>
+        <v>0.02040366622661598</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3793803333333334</v>
+        <v>0.8991316666666668</v>
       </c>
       <c r="H15">
-        <v>1.138141</v>
+        <v>2.697395</v>
       </c>
       <c r="I15">
-        <v>0.08186779600497247</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="J15">
-        <v>0.08186779600497246</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>106.269536</v>
       </c>
       <c r="O15">
-        <v>0.4923571104926409</v>
+        <v>0.4359831802722915</v>
       </c>
       <c r="P15">
-        <v>0.492357110492641</v>
+        <v>0.4359831802722916</v>
       </c>
       <c r="Q15">
-        <v>13.43885733028622</v>
+        <v>31.85010167319111</v>
       </c>
       <c r="R15">
-        <v>120.949715972576</v>
+        <v>286.65091505872</v>
       </c>
       <c r="S15">
-        <v>0.04030819148340922</v>
+        <v>0.05612675253336293</v>
       </c>
       <c r="T15">
-        <v>0.04030819148340922</v>
+        <v>0.05612675253336293</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3793803333333334</v>
+        <v>0.8991316666666668</v>
       </c>
       <c r="H16">
-        <v>1.138141</v>
+        <v>2.697395</v>
       </c>
       <c r="I16">
-        <v>0.08186779600497247</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="J16">
-        <v>0.08186779600497246</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.569813</v>
+        <v>30.51453966666667</v>
       </c>
       <c r="N16">
-        <v>70.709439</v>
+        <v>91.54361900000001</v>
       </c>
       <c r="O16">
-        <v>0.327603717688159</v>
+        <v>0.3755683862706898</v>
       </c>
       <c r="P16">
-        <v>0.3276037176881591</v>
+        <v>0.3755683862706898</v>
       </c>
       <c r="Q16">
-        <v>8.941923512544335</v>
+        <v>27.43658890805612</v>
       </c>
       <c r="R16">
-        <v>80.47731161289902</v>
+        <v>246.929300172505</v>
       </c>
       <c r="S16">
-        <v>0.0268201943301648</v>
+        <v>0.04834919058667444</v>
       </c>
       <c r="T16">
-        <v>0.0268201943301648</v>
+        <v>0.04834919058667445</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3793803333333334</v>
+        <v>0.8991316666666668</v>
       </c>
       <c r="H17">
-        <v>1.138141</v>
+        <v>2.697395</v>
       </c>
       <c r="I17">
-        <v>0.08186779600497247</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="J17">
-        <v>0.08186779600497246</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.703826</v>
+        <v>2.433908666666667</v>
       </c>
       <c r="N17">
-        <v>11.111478</v>
+        <v>7.301726</v>
       </c>
       <c r="O17">
-        <v>0.05148055978509729</v>
+        <v>0.0299561835195825</v>
       </c>
       <c r="P17">
-        <v>0.0514805597850973</v>
+        <v>0.0299561835195825</v>
       </c>
       <c r="Q17">
-        <v>1.405158742488667</v>
+        <v>2.188404355974445</v>
       </c>
       <c r="R17">
-        <v>12.646428682398</v>
+        <v>19.69563920377</v>
       </c>
       <c r="S17">
-        <v>0.004214599966708135</v>
+        <v>0.003856440742043157</v>
       </c>
       <c r="T17">
-        <v>0.004214599966708135</v>
+        <v>0.003856440742043157</v>
       </c>
     </row>
   </sheetData>
